--- a/medicine/Psychotrope/Château_de_Targé/Château_de_Targé.xlsx
+++ b/medicine/Psychotrope/Château_de_Targé/Château_de_Targé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Targ%C3%A9</t>
+          <t>Château_de_Targé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château de Targé est un domaine viticole du Saumur-Champigny situé près de la Loire, sur la côte de Parnay.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Targ%C3%A9</t>
+          <t>Château_de_Targé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le château de Targé est un ancien repaire de chasse, offert par Louis XIV à son secrétaire Phélypeaux de Pontchartrain. Ce dernier la donne en dot lors du mariage en 1655 de sa fille avec Joseph Gigault de Targé-Parnay.
 Cette gentilhommière seigneuriale devient un château au XVIIIe siècle lorsque deux tours sont construites côté Loire, et prend sa forme actuelle à la fin du XIXe siècle, lorsque les deux dernières tours sont rajoutées côté coteaux. Il appartient à des personnalités politiques importantes au fil des siècles, telles que :
@@ -519,7 +533,7 @@
 Son gendre François Allain-Targé, député de Paris et ministre de Léon Gambetta ;
 Son gendre, Charles Ferry (frère de Jules Ferry), député et sénateur des Vosges ;
 Abel Ferry, fils de Charles et député mort pour la France ;
-Son gendre Edgard Pisani[1], ministre sous de Gaulle.</t>
+Son gendre Edgard Pisani, ministre sous de Gaulle.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Targ%C3%A9</t>
+          <t>Château_de_Targé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Domaine viticole</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Resté dans la même famille depuis 1655[réf. nécessaire], c'est de nos jours un domaine viticole réputé pour ses vins rouges à base de cabernet franc (appellation Saumur-Champigny), ses vins blancs à base de chenin blanc (Saumur), et ses vins effervescents qui profitent d'élevages longs en caves troglodytes.
-En 2017, Édouard Pisani-Ferry[N 1] laisse les rênes à son fils Paul Pisani-Ferry, pour la gestion du domaine s'étendant sur vingt-quatre hectares, le développement de la biodiversité et la transition en agriculture biologique[2].
+En 2017, Édouard Pisani-Ferry[N 1] laisse les rênes à son fils Paul Pisani-Ferry, pour la gestion du domaine s'étendant sur vingt-quatre hectares, le développement de la biodiversité et la transition en agriculture biologique.
 </t>
         </is>
       </c>
